--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.155187815763959</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N2">
-        <v>0.155187815763959</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O2">
-        <v>0.02255027973165014</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P2">
-        <v>0.02255027973165014</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q2">
-        <v>1.225309549574971</v>
+        <v>1.388990150572444</v>
       </c>
       <c r="R2">
-        <v>1.225309549574971</v>
+        <v>12.500911355152</v>
       </c>
       <c r="S2">
-        <v>0.006180653511726811</v>
+        <v>0.005511619177922232</v>
       </c>
       <c r="T2">
-        <v>0.006180653511726811</v>
+        <v>0.00868944999235712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.478789175011558</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N3">
-        <v>0.478789175011558</v>
+        <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.06957266442501277</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P3">
-        <v>0.06957266442501277</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q3">
-        <v>3.780354440113408</v>
+        <v>1.280753926142222</v>
       </c>
       <c r="R3">
-        <v>3.780354440113408</v>
+        <v>11.52678533528</v>
       </c>
       <c r="S3">
-        <v>0.01906870060219781</v>
+        <v>0.005082129559101215</v>
       </c>
       <c r="T3">
-        <v>0.01906870060219781</v>
+        <v>0.008012329813239691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.24788068951513</v>
+        <v>0.524817</v>
       </c>
       <c r="N4">
-        <v>6.24788068951513</v>
+        <v>1.574451</v>
       </c>
       <c r="O4">
-        <v>0.907877055843337</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P4">
-        <v>0.907877055843337</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q4">
-        <v>49.33111427453883</v>
+        <v>4.443846661896</v>
       </c>
       <c r="R4">
-        <v>49.33111427453883</v>
+        <v>39.994619957064</v>
       </c>
       <c r="S4">
-        <v>0.2488338761287601</v>
+        <v>0.01763352351732478</v>
       </c>
       <c r="T4">
-        <v>0.2488338761287601</v>
+        <v>0.02780047311806652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.155187815763959</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N5">
-        <v>0.155187815763959</v>
+        <v>1.830022</v>
       </c>
       <c r="O5">
-        <v>0.02255027973165014</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P5">
-        <v>0.02255027973165014</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q5">
-        <v>0.04767410964374121</v>
+        <v>5.165189107756445</v>
       </c>
       <c r="R5">
-        <v>0.04767410964374121</v>
+        <v>46.486701969808</v>
       </c>
       <c r="S5">
-        <v>0.0002404756849322258</v>
+        <v>0.02049586552660053</v>
       </c>
       <c r="T5">
-        <v>0.0002404756849322258</v>
+        <v>0.03231315386536027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478789175011558</v>
+        <v>6.68238</v>
       </c>
       <c r="N6">
-        <v>0.478789175011558</v>
+        <v>13.36476</v>
       </c>
       <c r="O6">
-        <v>0.06957266442501277</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P6">
-        <v>0.06957266442501277</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q6">
-        <v>0.1470853076536342</v>
+        <v>56.58252696944001</v>
       </c>
       <c r="R6">
-        <v>0.1470853076536342</v>
+        <v>339.4951618166401</v>
       </c>
       <c r="S6">
-        <v>0.0007419213565977601</v>
+        <v>0.2245237956882128</v>
       </c>
       <c r="T6">
-        <v>0.0007419213565977601</v>
+        <v>0.2359848932163724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.24788068951513</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N7">
-        <v>6.24788068951513</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O7">
-        <v>0.907877055843337</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P7">
-        <v>0.907877055843337</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q7">
-        <v>1.919365560798966</v>
+        <v>0.05484611366177777</v>
       </c>
       <c r="R7">
-        <v>1.919365560798966</v>
+        <v>0.493615022956</v>
       </c>
       <c r="S7">
-        <v>0.009681580868895196</v>
+        <v>0.0002176335748444104</v>
       </c>
       <c r="T7">
-        <v>0.009681580868895196</v>
+        <v>0.0003431144286680065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.155187815763959</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N8">
-        <v>0.155187815763959</v>
+        <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.02255027973165014</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P8">
-        <v>0.02255027973165014</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q8">
-        <v>0.5765148056971459</v>
+        <v>0.05057226314888889</v>
       </c>
       <c r="R8">
-        <v>0.5765148056971459</v>
+        <v>0.45515036834</v>
       </c>
       <c r="S8">
-        <v>0.00290803108457823</v>
+        <v>0.0002006746090513822</v>
       </c>
       <c r="T8">
-        <v>0.00290803108457823</v>
+        <v>0.0003163774425984852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.478789175011558</v>
+        <v>0.524817</v>
       </c>
       <c r="N9">
-        <v>0.478789175011558</v>
+        <v>1.574451</v>
       </c>
       <c r="O9">
-        <v>0.06957266442501277</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P9">
-        <v>0.06957266442501277</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q9">
-        <v>1.778677319755089</v>
+        <v>0.175471164438</v>
       </c>
       <c r="R9">
-        <v>1.778677319755089</v>
+        <v>1.579240479942</v>
       </c>
       <c r="S9">
-        <v>0.008971927319416106</v>
+        <v>0.0006962830043756919</v>
       </c>
       <c r="T9">
-        <v>0.008971927319416106</v>
+        <v>0.001097738459740898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.24788068951513</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N10">
-        <v>6.24788068951513</v>
+        <v>1.830022</v>
       </c>
       <c r="O10">
-        <v>0.907877055843337</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P10">
-        <v>0.907877055843337</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q10">
-        <v>23.21055750416262</v>
+        <v>0.2039543252137778</v>
       </c>
       <c r="R10">
-        <v>23.21055750416262</v>
+        <v>1.835588926924</v>
       </c>
       <c r="S10">
-        <v>0.1170776917530768</v>
+        <v>0.000809306365351232</v>
       </c>
       <c r="T10">
-        <v>0.1170776917530768</v>
+        <v>0.001275927629104976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.02548140520171</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>6.02548140520171</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.2091635561307517</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.2091635561307517</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.155187815763959</v>
+        <v>6.68238</v>
       </c>
       <c r="N11">
-        <v>0.155187815763959</v>
+        <v>13.36476</v>
       </c>
       <c r="O11">
-        <v>0.02255027973165014</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P11">
-        <v>0.02255027973165014</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q11">
-        <v>0.9350812981996036</v>
+        <v>2.23423593332</v>
       </c>
       <c r="R11">
-        <v>0.9350812981996036</v>
+        <v>13.40541559992</v>
       </c>
       <c r="S11">
-        <v>0.004716696700415157</v>
+        <v>0.008865619106812541</v>
       </c>
       <c r="T11">
-        <v>0.004716696700415157</v>
+        <v>0.009318175705186615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.02548140520171</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H12">
-        <v>6.02548140520171</v>
+        <v>12.420097</v>
       </c>
       <c r="I12">
-        <v>0.2091635561307517</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J12">
-        <v>0.2091635561307517</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.478789175011558</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N12">
-        <v>0.478789175011558</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O12">
-        <v>0.06957266442501277</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P12">
-        <v>0.06957266442501277</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q12">
-        <v>2.884935271044009</v>
+        <v>0.6791281439384443</v>
       </c>
       <c r="R12">
-        <v>2.884935271044009</v>
+        <v>6.112153295445999</v>
       </c>
       <c r="S12">
-        <v>0.01455206590062711</v>
+        <v>0.002694832429772968</v>
       </c>
       <c r="T12">
-        <v>0.01455206590062711</v>
+        <v>0.004248590274541067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.02548140520171</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H13">
-        <v>6.02548140520171</v>
+        <v>12.420097</v>
       </c>
       <c r="I13">
-        <v>0.2091635561307517</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J13">
-        <v>0.2091635561307517</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.24788068951513</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N13">
-        <v>6.24788068951513</v>
+        <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.907877055843337</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P13">
-        <v>0.907877055843337</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q13">
-        <v>37.64648891659225</v>
+        <v>0.6262074906322223</v>
       </c>
       <c r="R13">
-        <v>37.64648891659225</v>
+        <v>5.63586741569</v>
       </c>
       <c r="S13">
-        <v>0.1898947935297094</v>
+        <v>0.002484839228920867</v>
       </c>
       <c r="T13">
-        <v>0.1898947935297094</v>
+        <v>0.00391752142550872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.8642222294207</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H14">
-        <v>10.8642222294207</v>
+        <v>12.420097</v>
       </c>
       <c r="I14">
-        <v>0.3771315855590672</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J14">
-        <v>0.3771315855590672</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.155187815763959</v>
+        <v>0.524817</v>
       </c>
       <c r="N14">
-        <v>0.155187815763959</v>
+        <v>1.574451</v>
       </c>
       <c r="O14">
-        <v>0.02255027973165014</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P14">
-        <v>0.02255027973165014</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q14">
-        <v>1.685994917758047</v>
+        <v>2.172759349083</v>
       </c>
       <c r="R14">
-        <v>1.685994917758047</v>
+        <v>19.554834141747</v>
       </c>
       <c r="S14">
-        <v>0.008504422749997713</v>
+        <v>0.008621675317481738</v>
       </c>
       <c r="T14">
-        <v>0.008504422749997713</v>
+        <v>0.01359266925075177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.8642222294207</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H15">
-        <v>10.8642222294207</v>
+        <v>12.420097</v>
       </c>
       <c r="I15">
-        <v>0.3771315855590672</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J15">
-        <v>0.3771315855590672</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.478789175011558</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N15">
-        <v>0.478789175011558</v>
+        <v>1.830022</v>
       </c>
       <c r="O15">
-        <v>0.06957266442501277</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P15">
-        <v>0.06957266442501277</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q15">
-        <v>5.201671998366566</v>
+        <v>2.525450083570445</v>
       </c>
       <c r="R15">
-        <v>5.201671998366566</v>
+        <v>22.729050752134</v>
       </c>
       <c r="S15">
-        <v>0.02623804924617398</v>
+        <v>0.01002117913345577</v>
       </c>
       <c r="T15">
-        <v>0.02623804924617398</v>
+        <v>0.01579908410461758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.8642222294207</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H16">
-        <v>10.8642222294207</v>
+        <v>12.420097</v>
       </c>
       <c r="I16">
-        <v>0.3771315855590672</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J16">
-        <v>0.3771315855590672</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.24788068951513</v>
+        <v>6.68238</v>
       </c>
       <c r="N16">
-        <v>6.24788068951513</v>
+        <v>13.36476</v>
       </c>
       <c r="O16">
-        <v>0.907877055843337</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P16">
-        <v>0.907877055843337</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q16">
-        <v>67.8783642737986</v>
+        <v>27.66526926362</v>
       </c>
       <c r="R16">
-        <v>67.8783642737986</v>
+        <v>165.99161558172</v>
       </c>
       <c r="S16">
-        <v>0.3423891135628955</v>
+        <v>0.1097779048850049</v>
       </c>
       <c r="T16">
-        <v>0.3423891135628955</v>
+        <v>0.1153816551265662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.291073</v>
+      </c>
+      <c r="H17">
+        <v>18.873219</v>
+      </c>
+      <c r="I17">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J17">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P17">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q17">
+        <v>1.031983420871333</v>
+      </c>
+      <c r="R17">
+        <v>9.287850787841998</v>
+      </c>
+      <c r="S17">
+        <v>0.004094989162758337</v>
+      </c>
+      <c r="T17">
+        <v>0.006456034497370164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.291073</v>
+      </c>
+      <c r="H18">
+        <v>18.873219</v>
+      </c>
+      <c r="I18">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J18">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.45377</v>
+      </c>
+      <c r="O18">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P18">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q18">
+        <v>0.9515667317366667</v>
+      </c>
+      <c r="R18">
+        <v>8.564100585629999</v>
+      </c>
+      <c r="S18">
+        <v>0.003775889588238696</v>
+      </c>
+      <c r="T18">
+        <v>0.005952951881198533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.291073</v>
+      </c>
+      <c r="H19">
+        <v>18.873219</v>
+      </c>
+      <c r="I19">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J19">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.524817</v>
+      </c>
+      <c r="N19">
+        <v>1.574451</v>
+      </c>
+      <c r="O19">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P19">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q19">
+        <v>3.301662058641</v>
+      </c>
+      <c r="R19">
+        <v>29.714958527769</v>
+      </c>
+      <c r="S19">
+        <v>0.01310124763226305</v>
+      </c>
+      <c r="T19">
+        <v>0.02065502576702935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.291073</v>
+      </c>
+      <c r="H20">
+        <v>18.873219</v>
+      </c>
+      <c r="I20">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J20">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.830022</v>
+      </c>
+      <c r="O20">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P20">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q20">
+        <v>3.837600664535334</v>
+      </c>
+      <c r="R20">
+        <v>34.538405980818</v>
+      </c>
+      <c r="S20">
+        <v>0.01522789302079854</v>
+      </c>
+      <c r="T20">
+        <v>0.0240078297541369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.291073</v>
+      </c>
+      <c r="H21">
+        <v>18.873219</v>
+      </c>
+      <c r="I21">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J21">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.68238</v>
+      </c>
+      <c r="N21">
+        <v>13.36476</v>
+      </c>
+      <c r="O21">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P21">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q21">
+        <v>42.03934039374</v>
+      </c>
+      <c r="R21">
+        <v>252.23604236244</v>
+      </c>
+      <c r="S21">
+        <v>0.1668153187737477</v>
+      </c>
+      <c r="T21">
+        <v>0.1753306150335344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.755292</v>
+      </c>
+      <c r="H22">
+        <v>23.510584</v>
+      </c>
+      <c r="I22">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J22">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P22">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q22">
+        <v>1.928330262818666</v>
+      </c>
+      <c r="R22">
+        <v>11.569981576912</v>
+      </c>
+      <c r="S22">
+        <v>0.00765176200388388</v>
+      </c>
+      <c r="T22">
+        <v>0.008042355750617795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.755292</v>
+      </c>
+      <c r="H23">
+        <v>23.510584</v>
+      </c>
+      <c r="I23">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J23">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.45377</v>
+      </c>
+      <c r="O23">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P23">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q23">
+        <v>1.778066283613333</v>
+      </c>
+      <c r="R23">
+        <v>10.66839770168</v>
+      </c>
+      <c r="S23">
+        <v>0.007055503038910157</v>
+      </c>
+      <c r="T23">
+        <v>0.0074156600021902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.755292</v>
+      </c>
+      <c r="H24">
+        <v>23.510584</v>
+      </c>
+      <c r="I24">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J24">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.524817</v>
+      </c>
+      <c r="N24">
+        <v>1.574451</v>
+      </c>
+      <c r="O24">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P24">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q24">
+        <v>6.169377081563999</v>
+      </c>
+      <c r="R24">
+        <v>37.01626248938399</v>
+      </c>
+      <c r="S24">
+        <v>0.02448056022900397</v>
+      </c>
+      <c r="T24">
+        <v>0.02573020099633815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.755292</v>
+      </c>
+      <c r="H25">
+        <v>23.510584</v>
+      </c>
+      <c r="I25">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J25">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.830022</v>
+      </c>
+      <c r="O25">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P25">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q25">
+        <v>7.170814325474666</v>
+      </c>
+      <c r="R25">
+        <v>43.024885952848</v>
+      </c>
+      <c r="S25">
+        <v>0.02845433982474038</v>
+      </c>
+      <c r="T25">
+        <v>0.0299068271338522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.755292</v>
+      </c>
+      <c r="H26">
+        <v>23.510584</v>
+      </c>
+      <c r="I26">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J26">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.68238</v>
+      </c>
+      <c r="N26">
+        <v>13.36476</v>
+      </c>
+      <c r="O26">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P26">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q26">
+        <v>78.55332815496</v>
+      </c>
+      <c r="R26">
+        <v>314.21331261984</v>
+      </c>
+      <c r="S26">
+        <v>0.3117056156014222</v>
+      </c>
+      <c r="T26">
+        <v>0.2184113453310521</v>
       </c>
     </row>
   </sheetData>
